--- a/biology/Mycologie/Fibroporia_vaillantii/Fibroporia_vaillantii.xlsx
+++ b/biology/Mycologie/Fibroporia_vaillantii/Fibroporia_vaillantii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fibroporia vaillantii (Parmasto, 1968) est une espèce de champignons lignivores responsable d'une pourriture brune.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mycélium est de couleur blanche avec parfois des filaments forts comme des cristaux de glace. Contrairement à la mérule pleureuse, il reste de couleur blanche et ne devient pas cassant en séchant.
 Le carpophore à peau mince est de petite taille ; les pores sont bien visibles à l’œil nu.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement répandu en Amérique du Nord tempéré et en Europe, connu du Mexique, de l'Afrique et de l'Asie.
 </t>
@@ -576,7 +592,9 @@
           <t>Destruction du bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">S’attaque surtout à la cellulose des résineux.
 </t>
@@ -607,7 +625,9 @@
           <t>Origine et causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Anciens bâtiments humides, dans les mines et à l’air libre.
 </t>
@@ -638,7 +658,9 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mérule pleureuse et le coniophore des caves, c’est le troisième plus important champignon lignivore en Europe.
  Portail de la mycologie                     </t>
